--- a/biology/Botanique/Strombosia_pustulata/Strombosia_pustulata.xlsx
+++ b/biology/Botanique/Strombosia_pustulata/Strombosia_pustulata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Strombosia pustulata est un arbre à feuilles persistantes du genre Strombosia et de la famille des Olacaceae, que l’on trouve en Afrique tropicale de l’Ouest, de la Sierra Leone au Gabon[3]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Strombosia pustulata est un arbre à feuilles persistantes du genre Strombosia et de la famille des Olacaceae, que l’on trouve en Afrique tropicale de l’Ouest, de la Sierra Leone au Gabon. 
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (24 août 2017)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (24 août 2017) :
 variété Strombosia pustulata var. lucida
-Selon The Plant List            (24 août 2017)[1] :
+Selon The Plant List            (24 août 2017) :
 variété Strombosia pustulata var. lucida (J.Léonard) Villiers
-Selon Tropicos                                           (24 août 2017)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (24 août 2017) (Attention liste brute contenant possiblement des synonymes) :
 variété Strombosia pustulata var. lucida Villiers
 variété Strombosia pustulata var. pustulata</t>
         </is>
@@ -547,16 +561,18 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Stature
-L’arbre atteint généralement les 20 mètres de haut, certains spécimens allant jusqu’à 45 mètres de haut. La cime est petite et dense, le fût est droit, avec un diamètre de 20 à 100 cm[3].
+L’arbre atteint généralement les 20 mètres de haut, certains spécimens allant jusqu’à 45 mètres de haut. La cime est petite et dense, le fût est droit, avec un diamètre de 20 à 100 cm.
 Bois et écorce
-Le bois de cœur a une couleur brun pâle et présente des stries violacées. Le grain est fin, et le bois huileux au toucher. Fraîchement coupé, il dégage une odeur désagréable[6].
+Le bois de cœur a une couleur brun pâle et présente des stries violacées. Le grain est fin, et le bois huileux au toucher. Fraîchement coupé, il dégage une odeur désagréable.
 Feuilles
-Les feuilles sont alternes, avec une base cunéiforme à arrondie[6].
+Les feuilles sont alternes, avec une base cunéiforme à arrondie.
 Fleurs et fruits
-Les fleurs sont bisexuées et régulières, de couleur vert pâle, blanchâtre ou jaunâtre. Le fruit comporte un noyau à 1 graine[6].</t>
+Les fleurs sont bisexuées et régulières, de couleur vert pâle, blanchâtre ou jaunâtre. Le fruit comporte un noyau à 1 graine.</t>
         </is>
       </c>
     </row>
@@ -584,12 +600,14 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Usages médicinaux
-En Afrique de l'Ouest, une pâte est fabriquée à partir de l’écorce pour traiter les douleurs cutanées et les plaies. En Côte d'Ivoire, un jus est extrait des feuilles et pris pour calmer le hoquet. Plusieurs parties de la plante servent à soigner la toux, les abcès et les furoncles. Au Cameroun, une poudre composée à partir de l’écorce, ajoutée à des graines d’Aframomum melegueta, est appliquée pour soulager les muscles et les reins douloureux. Au Gabon, l’écorce s’utilise pour fabriquer un remède contre la dysenterie et les maux d’estomac notamment[6].
+En Afrique de l'Ouest, une pâte est fabriquée à partir de l’écorce pour traiter les douleurs cutanées et les plaies. En Côte d'Ivoire, un jus est extrait des feuilles et pris pour calmer le hoquet. Plusieurs parties de la plante servent à soigner la toux, les abcès et les furoncles. Au Cameroun, une poudre composée à partir de l’écorce, ajoutée à des graines d’Aframomum melegueta, est appliquée pour soulager les muscles et les reins douloureux. Au Gabon, l’écorce s’utilise pour fabriquer un remède contre la dysenterie et les maux d’estomac notamment.
 Usages domestiques, artisanaux et industriels
-Les graines produisent une huile qui est utilisée comme onguent et pour faire du savon[3]. Le bois est utilisé pour les constructions lourdes notamment, et convient particulièrement pour la marqueterie, la menuiserie, la sculpture. Il s’utilise également comme bois de feu, ainsi que pour la production de charbon de bois[6].</t>
+Les graines produisent une huile qui est utilisée comme onguent et pour faire du savon. Le bois est utilisé pour les constructions lourdes notamment, et convient particulièrement pour la marqueterie, la menuiserie, la sculpture. Il s’utilise également comme bois de feu, ainsi que pour la production de charbon de bois.</t>
         </is>
       </c>
     </row>
